--- a/Voies escalade.xlsx
+++ b/Voies escalade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benoitboidin/Documents/GitHub/prog-web-projet-2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2190C59E-EAE2-B64C-B1D1-D96D569C4D6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F0CC3-2E7D-8147-A365-BF07EAE5E7B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voies escalade" sheetId="1" r:id="rId1"/>
@@ -17522,7 +17522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -50362,15 +50362,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
